--- a/fig/summary_table.xlsx
+++ b/fig/summary_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Oxford\Chapter_four\dgvmlin\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0D205-4213-44D9-8F99-1BD9A4785132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AE7BC-4C54-44FE-9B7D-62E5467A2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8390" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33990" yWindow="-21710" windowWidth="25820" windowHeight="29020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trendy V9 (2)" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="129">
   <si>
     <t>LNPP:GPP</t>
   </si>
@@ -476,23 +476,6 @@
     </r>
     <r>
       <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N-coupled</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -573,21 +556,62 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">a: Note that LcVeg_ag:cVeg was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
-b: Carbon-nitrogen interactions, including N deposition, for more information, see supplementary of (citation XXX)
+    <t>Experiments Pattern</t>
+  </si>
+  <si>
+    <t>&gt;1</t>
+  </si>
+  <si>
+    <t>Models Overall</t>
+  </si>
+  <si>
+    <r>
+      <t>CN-coupled</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vegetation demography</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <t>Table 1. Summary of models linearity. The median of the linearity index 'L' was shown. Using LNPP:GPP as an example, values smaller than 1 imply a relative increase in NPP is smaller than GPP. When LNPP:GPP&lt;1, the carbon pool has limited capacity so the increase of the carbon pool (carbon sink) is smaller than the increase of its input flux. Red illustrates &gt;1, while green illustrates &lt;1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a: Note that linearity cVeg versus cVeg above ground was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
+b: These models incorporate Carbon-nitrogen interactions, including N deposition
+c: These models consider ecosystem demography, and/or vegetation competition
 </t>
   </si>
   <si>
-    <t>Experiments Pattern</t>
-  </si>
-  <si>
-    <t>&gt;1</t>
-  </si>
-  <si>
-    <t>Table one: summary of models linearity. The median of the linearity index 'L' was shown (see Figure 1,2,3 for the histogram of 'L' ). Using LNPP:GPP as an example, values larger than 1 imply a relative increase in NPP is larger than GPP.  Orange illustrates &gt;1, while green illustrates &lt;1. When LNPP:GPP&lt;1, the carbon pool has limited capacity so the increase of the carbon pool (carbon sink) is smaller than the increase of its input flux.</t>
-  </si>
-  <si>
-    <t>Models Overall</t>
+    <t>C only models</t>
+  </si>
+  <si>
+    <t>CN coupled models</t>
   </si>
 </sst>
 </file>
@@ -595,7 +619,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -682,7 +706,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +743,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -752,7 +788,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -782,14 +818,19 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -799,6 +840,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+      <color rgb="FF339966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1087,388 +1134,447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7FCE6-3753-46E4-8848-1C18DB7D268E}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:E21"/>
+      <selection sqref="A1:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
     <col min="5" max="5" width="11.7265625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:28" ht="31" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="E2" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>123</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="24">
+        <v>122</v>
+      </c>
+      <c r="B4" s="23">
         <v>1.0225345604366101</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="22">
         <v>0.98717775941625496</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="23">
         <v>1.0043112417434901</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="24">
-        <v>1.08481704138362</v>
-      </c>
-      <c r="C5" s="24">
-        <v>1.10335489244336</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.96128504168947004</v>
-      </c>
-      <c r="E5" t="s">
-        <v>117</v>
+        <v>127</v>
+      </c>
+      <c r="B5">
+        <v>1.0439574220710599</v>
+      </c>
+      <c r="C5">
+        <v>0.93422395728118601</v>
+      </c>
+      <c r="D5">
+        <v>1.0323950632504699</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="24">
-        <v>1.00013112359679</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.934572303026595</v>
-      </c>
-      <c r="D6" s="24">
-        <v>1.12373077656944</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
+        <v>128</v>
+      </c>
+      <c r="B6">
+        <v>1.0000000001151701</v>
+      </c>
+      <c r="C6">
+        <v>1.0284090191220701</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="24">
-        <v>1.21616266309143</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1.47928943969862</v>
-      </c>
-      <c r="D7" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1.08481704138362</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1.10335489244336</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.96128504168947004</v>
+      </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="24">
-        <v>1.0593265047434799</v>
-      </c>
-      <c r="C8" s="23">
-        <v>0.89272806048166997</v>
-      </c>
-      <c r="D8" s="24">
-        <v>1.1542885177826201</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="23">
+        <v>1.00013112359679</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.934572303026595</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1.12373077656944</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="24">
-        <v>1.05500273425127</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1.21616266309143</v>
       </c>
       <c r="C9" s="23">
-        <v>0.94180280625131896</v>
-      </c>
-      <c r="D9" s="22"/>
+        <v>1.47928943969862</v>
+      </c>
+      <c r="D9" s="21"/>
       <c r="E9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1.0593265047434799</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.89272806048166997</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1.1542885177826201</v>
+      </c>
+      <c r="E10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" s="23">
-        <v>0.98598435486487901</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.71114327910187702</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.96662854244519003</v>
-      </c>
-      <c r="E10" t="s">
-        <v>117</v>
-      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="24">
-        <v>1.0078649178189401</v>
-      </c>
-      <c r="C11" s="24">
-        <v>1.5198377918005399</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.99571003954454895</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1.05500273425127</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.94180280625131896</v>
+      </c>
+      <c r="D11" s="21"/>
       <c r="E11" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="24">
-        <v>1.0004187673951801</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1.1806436226630099</v>
-      </c>
-      <c r="D12" s="24">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0.98598435486487901</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.71114327910187702</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0.96662854244519003</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B13" s="23">
-        <v>0.95295835098146198</v>
-      </c>
-      <c r="C13" s="24">
-        <v>1.0066112447776601</v>
-      </c>
-      <c r="D13" s="24">
-        <v>1.0218504148142</v>
+        <v>1.0078649178189401</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1.5198377918005399</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0.99571003954454895</v>
       </c>
       <c r="E13" t="s">
-        <v>118</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B14" s="23">
-        <v>0.98305553915476096</v>
-      </c>
-      <c r="C14" s="24">
-        <v>1.0715698390335899</v>
-      </c>
-      <c r="D14" s="22"/>
+        <v>1.0004187673951801</v>
+      </c>
+      <c r="C14" s="23">
+        <v>1.1806436226630099</v>
+      </c>
+      <c r="D14" s="23">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="24">
-        <v>1.01389250888966</v>
+        <v>3</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0.95295835098146198</v>
       </c>
       <c r="C15" s="23">
-        <v>0.95537656189622</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1.1842427360379499</v>
+        <v>1.0066112447776601</v>
+      </c>
+      <c r="D15" s="23">
+        <v>1.0218504148142</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="22">
+        <v>0.98305553915476096</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1.0715698390335899</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1.01389250888966</v>
+      </c>
+      <c r="C17" s="22">
+        <v>0.95537656189622</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1.1842427360379499</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B18" s="23">
         <v>1.2954166214692799</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C18" s="22">
         <v>0.92688505224821105</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B19" s="22">
         <v>0.98571216534577499</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C19" s="22">
         <v>0.57093636897589195</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D19" s="22">
         <v>0.76904817406915704</v>
       </c>
-      <c r="E17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B20" s="23">
         <v>1.0564121153100701</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C20" s="22">
         <v>0.98799137914526103</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B21" s="22">
         <v>0.90189580511691203</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C21" s="22">
         <v>0.64029491228955404</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D21" s="23">
         <v>1.0224916389355101</v>
       </c>
-      <c r="E19" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="23">
+      <c r="B22" s="22">
         <v>0.96029685440475998</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C22" s="23">
         <v>1.0363617949438999</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D22" s="22">
         <v>0.97402206224586296</v>
       </c>
-      <c r="E20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="3" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="3" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B4:D22">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1479,7 +1585,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1495,14 +1601,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -1991,14 +2097,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/fig/summary_table.xlsx
+++ b/fig/summary_table.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Oxford\Chapter_four\dgvmlin\fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oxford\Chapter_four\dgvmlin\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91AE7BC-4C54-44FE-9B7D-62E5467A2C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258484B-22BF-416A-9968-7A44FBEEDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33990" yWindow="-21710" windowWidth="25820" windowHeight="29020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trendy V9 (2)" sheetId="6" r:id="rId1"/>
-    <sheet name="Trendy V9" sheetId="1" r:id="rId2"/>
-    <sheet name="compare process" sheetId="3" r:id="rId3"/>
-    <sheet name="quantile_result" sheetId="4" r:id="rId4"/>
+    <sheet name="Trendy V11IQR" sheetId="7" r:id="rId1"/>
+    <sheet name="Trendy V11" sheetId="6" r:id="rId2"/>
+    <sheet name="Trendy V9" sheetId="1" r:id="rId3"/>
+    <sheet name="compare process" sheetId="3" r:id="rId4"/>
+    <sheet name="quantile_result" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="135">
   <si>
     <t>LNPP:GPP</t>
   </si>
@@ -556,9 +557,6 @@
     </r>
   </si>
   <si>
-    <t>Experiments Pattern</t>
-  </si>
-  <si>
     <t>&gt;1</t>
   </si>
   <si>
@@ -582,8 +580,50 @@
     </r>
   </si>
   <si>
+    <t>C only models</t>
+  </si>
+  <si>
+    <t>CN coupled models</t>
+  </si>
+  <si>
+    <t>Veg Demo</t>
+  </si>
+  <si>
+    <t>not Veg Demo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table 1. Summary of models linearity. The median of the linearity index 'L' was shown. Using LNPP:GPP as an example, values smaller than 1 imply that a relative increase in NPP is smaller than GPP. Red illustrates &gt;1, while green illustrates &lt;1. </t>
+  </si>
+  <si>
     <r>
-      <t>Vegetation demography</t>
+      <t>Empirical Pattern</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">a: Note that linearity cVeg versus cVeg above ground was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
+b: CN coupled models incorporate Carbon-nitrogen interactions, including N deposition. The rest are C only models
+c: Veg Demo models consider ecosystem demography, and/or vegetation competition. The rest are 'not Veg Demo' models.
+d: Empirical Pattern refers to empirical expectations of linearity index L as summarized in the Introduction
+</t>
+  </si>
+  <si>
+    <t>LPJwsl</t>
+  </si>
+  <si>
+    <r>
+      <t>Veg  demo</t>
     </r>
     <r>
       <rPr>
@@ -599,19 +639,13 @@
     </r>
   </si>
   <si>
-    <t>Table 1. Summary of models linearity. The median of the linearity index 'L' was shown. Using LNPP:GPP as an example, values smaller than 1 imply a relative increase in NPP is smaller than GPP. When LNPP:GPP&lt;1, the carbon pool has limited capacity so the increase of the carbon pool (carbon sink) is smaller than the increase of its input flux. Red illustrates &gt;1, while green illustrates &lt;1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a: Note that linearity cVeg versus cVeg above ground was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
-b: These models incorporate Carbon-nitrogen interactions, including N deposition
-c: These models consider ecosystem demography, and/or vegetation competition
-</t>
-  </si>
-  <si>
-    <t>C only models</t>
-  </si>
-  <si>
-    <t>CN coupled models</t>
+    <t>Table 1. Summary of models linearity. The median of the linearity index 'L' was shown as big and coloured print. Using LNPP:GPP as an example, values smaller than 1 imply that a relative increase in NPP is smaller than GPP. Red illustrates &gt;1, while green illustrates &lt;1. The small print represents IQR (i.e. the extend of spatial variation of the index L).</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -621,7 +655,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -705,6 +739,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -756,7 +797,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -782,13 +823,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -809,25 +890,97 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1133,247 +1286,330 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7FCE6-3753-46E4-8848-1C18DB7D268E}">
-  <dimension ref="A1:AB23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7103E-9698-4ADB-8F53-91BCC1D4B92C}">
+  <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.7265625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.20703125" customWidth="1"/>
+    <col min="3" max="3" width="5.41796875" customWidth="1"/>
+    <col min="4" max="4" width="7.20703125" customWidth="1"/>
+    <col min="5" max="5" width="5.3671875" customWidth="1"/>
+    <col min="6" max="6" width="6.26171875" customWidth="1"/>
+    <col min="7" max="7" width="6.47265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7890625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:31" s="3" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+    </row>
+    <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16"/>
+      <c r="B2" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1"/>
+      <c r="B3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="27"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="34">
+        <v>1.02036484329655</v>
+      </c>
+      <c r="C5" s="35">
+        <v>0.215537718853272</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.99333774810055397</v>
+      </c>
+      <c r="E5" s="35">
+        <v>0.73592159659556899</v>
+      </c>
+      <c r="F5" s="34">
+        <v>1.0203173481130601</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0.35343461698274892</v>
+      </c>
+      <c r="H5" s="25"/>
+      <c r="I5" s="28"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="36">
+        <v>1.0405628356657299</v>
+      </c>
+      <c r="C6" s="35">
+        <v>0.16778838439550392</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.94463216711963505</v>
+      </c>
+      <c r="E6" s="35">
+        <v>0.69490435664509598</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1.0357676067405399</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0.48934681335177599</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="36">
+        <v>0.99958028552851996</v>
+      </c>
+      <c r="C7" s="35">
+        <v>0.25815995086821308</v>
+      </c>
+      <c r="D7" s="36">
+        <v>1.02580067451686</v>
+      </c>
+      <c r="E7" s="35">
+        <v>0.74222166479097607</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0.23350951029954692</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:28" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1.0225345604366101</v>
-      </c>
-      <c r="C4" s="22">
-        <v>0.98717775941625496</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1.0043112417434901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5">
-        <v>1.0439574220710599</v>
-      </c>
-      <c r="C5">
-        <v>0.93422395728118601</v>
-      </c>
-      <c r="D5">
-        <v>1.0323950632504699</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6">
-        <v>1.0000000001151701</v>
-      </c>
-      <c r="C6">
-        <v>1.0284090191220701</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B8" s="36">
+        <v>1.02055527179855</v>
+      </c>
+      <c r="C8" s="35">
+        <v>0.27914773686446792</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1.0670844469908201</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1.0909100081102099</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.98836650257329595</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0.17753088199772604</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="36">
+        <v>1.0205922164792001</v>
+      </c>
+      <c r="C9" s="35">
+        <v>0.18474053866396989</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.97368244263514203</v>
+      </c>
+      <c r="E9" s="35">
+        <v>0.56740179987341</v>
+      </c>
+      <c r="F9" s="36">
+        <v>1.0362340889714701</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0.40255973397416189</v>
+      </c>
+      <c r="H9" s="25"/>
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B10" s="34">
         <v>1.08481704138362</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C10" s="35">
+        <v>0.27060534627118293</v>
+      </c>
+      <c r="D10" s="34">
         <v>1.10335489244336</v>
       </c>
-      <c r="D7" s="22">
-        <v>0.96128504168947004</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E10" s="35">
+        <v>0.82844676602854206</v>
+      </c>
+      <c r="F10" s="37">
+        <v>0.96275366818694597</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0.38243991982688508</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23">
-        <v>1.00013112359679</v>
-      </c>
-      <c r="C8" s="22">
+      <c r="B11" s="34">
+        <v>1.00034126637305</v>
+      </c>
+      <c r="C11" s="35">
+        <v>8.6068968413512859E-2</v>
+      </c>
+      <c r="D11" s="37">
         <v>0.934572303026595</v>
       </c>
-      <c r="D8" s="23">
-        <v>1.12373077656944</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E11" s="35">
+        <v>0.45556380342775604</v>
+      </c>
+      <c r="F11" s="34">
+        <v>1.13291106462944</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0.77987903399306502</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1.21616266309143</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1.47928943969862</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" t="s">
+      <c r="I11" s="28"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1.2167948194044</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0.3510150541116599</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1.51160591058991</v>
+      </c>
+      <c r="E12" s="35">
+        <v>2.2476998519533891</v>
+      </c>
+      <c r="F12" s="36"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I12" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="23">
-        <v>1.0593265047434799</v>
-      </c>
-      <c r="C10" s="22">
-        <v>0.89272806048166997</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1.1542885177826201</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="B13" s="34">
+        <v>1.0556137510054899</v>
+      </c>
+      <c r="C13" s="35">
+        <v>0.11997945114897002</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0.90846490285125803</v>
+      </c>
+      <c r="E13" s="35">
+        <v>0.49031151830080788</v>
+      </c>
+      <c r="F13" s="34">
+        <v>1.1840140605082701</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0.423836265888762</v>
+      </c>
+      <c r="H13" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1.05500273425127</v>
-      </c>
-      <c r="C11" s="22">
-        <v>0.94180280625131896</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B12" s="22">
-        <v>0.98598435486487901</v>
-      </c>
-      <c r="C12" s="22">
-        <v>0.71114327910187702</v>
-      </c>
-      <c r="D12" s="22">
-        <v>0.96662854244519003</v>
-      </c>
-      <c r="E12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1.0078649178189401</v>
-      </c>
-      <c r="C13" s="23">
-        <v>1.5198377918005399</v>
-      </c>
-      <c r="D13" s="22">
-        <v>0.99571003954454895</v>
-      </c>
-      <c r="E13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="9"/>
+      <c r="I13" s="28"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -1390,180 +1626,470 @@
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="AC13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="34">
+        <v>1.0512300198017099</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0.11395763990071006</v>
+      </c>
+      <c r="D14" s="37">
+        <v>0.96294614960604397</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0.57499413108635899</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0.98599467762113802</v>
+      </c>
+      <c r="C15" s="35">
+        <v>0.10455336480207589</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0.71212362887281999</v>
+      </c>
+      <c r="E15" s="35">
+        <v>0.47015076427556102</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.96601707046895502</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0.35997278359246909</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="34">
+        <v>1.0078649178189401</v>
+      </c>
+      <c r="C16" s="35">
+        <v>0.21955805230654513</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1.5198377918005399</v>
+      </c>
+      <c r="E16" s="35">
+        <v>0.58676654115440985</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.99564364813023298</v>
+      </c>
+      <c r="G16" s="41">
+        <v>8.3908624363447926E-2</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="23">
+      <c r="B17" s="34">
         <v>1.0004187673951801</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C17" s="35">
+        <v>0.40089710438064008</v>
+      </c>
+      <c r="D17" s="34">
         <v>1.1806436226630099</v>
       </c>
-      <c r="D14" s="23">
+      <c r="E17" s="35">
+        <v>0.69565659925692003</v>
+      </c>
+      <c r="F17" s="34">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G17" s="41">
+        <v>2.1533541792660982E-2</v>
+      </c>
+      <c r="H17" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F14" t="s">
+      <c r="I17" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22">
-        <v>0.95295835098146198</v>
-      </c>
-      <c r="C15" s="23">
+      <c r="B18" s="37">
+        <v>0.95179153022478402</v>
+      </c>
+      <c r="C18" s="35">
+        <v>0.38375137083786204</v>
+      </c>
+      <c r="D18" s="34">
         <v>1.0066112447776601</v>
       </c>
-      <c r="D15" s="23">
-        <v>1.0218504148142</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E18" s="35">
+        <v>0.82498163247975709</v>
+      </c>
+      <c r="F18" s="34">
+        <v>1.0225717634092499</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0.23051471440833393</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="I18" s="28"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="22">
+      <c r="B19" s="37">
         <v>0.98305553915476096</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C19" s="35">
+        <v>8.6417253057192056E-2</v>
+      </c>
+      <c r="D19" s="34">
         <v>1.0715698390335899</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" t="s">
+      <c r="E19" s="35">
+        <v>0.27597248440608202</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="23">
+      <c r="B20" s="34">
         <v>1.01389250888966</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C20" s="35">
+        <v>0.11011604676537812</v>
+      </c>
+      <c r="D20" s="37">
         <v>0.95537656189622</v>
       </c>
-      <c r="D17" s="23">
-        <v>1.1842427360379499</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E20" s="35">
+        <v>0.30505181669990111</v>
+      </c>
+      <c r="F20" s="34">
+        <v>1.1854900774247901</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0.25568419527634001</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="23">
-        <v>1.2954166214692799</v>
-      </c>
-      <c r="C18" s="22">
+      <c r="B21" s="34">
+        <v>1.29314389937191</v>
+      </c>
+      <c r="C21" s="35">
+        <v>0.40287621371065008</v>
+      </c>
+      <c r="D21" s="37">
         <v>0.92688505224821105</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" t="s">
+      <c r="E21" s="35">
+        <v>1.0617699296656209</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="22">
-        <v>0.98571216534577499</v>
-      </c>
-      <c r="C19" s="22">
-        <v>0.57093636897589195</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0.76904817406915704</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="37">
+        <v>0.98233983294017102</v>
+      </c>
+      <c r="C22" s="35">
+        <v>0.35713960753490293</v>
+      </c>
+      <c r="D22" s="37">
+        <v>0.58351082356560702</v>
+      </c>
+      <c r="E22" s="35">
+        <v>0.58838107399337003</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.76401034529867395</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0.44881047986116596</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F19" t="s">
+      <c r="I22" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="23">
-        <v>1.0564121153100701</v>
-      </c>
-      <c r="C20" s="22">
-        <v>0.98799137914526103</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" t="s">
+      <c r="B23" s="34">
+        <v>1.0564199605957201</v>
+      </c>
+      <c r="C23" s="35">
+        <v>0.2991445046595409</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0.98738227200360995</v>
+      </c>
+      <c r="E23" s="35">
+        <v>1.1818525191907781</v>
+      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="F20" t="s">
+      <c r="I23" s="28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B24" s="37">
         <v>0.90189580511691203</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C24" s="35">
+        <v>0.34252380219377687</v>
+      </c>
+      <c r="D24" s="37">
         <v>0.64029491228955404</v>
       </c>
-      <c r="D21" s="23">
-        <v>1.0224916389355101</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="E24" s="35">
+        <v>0.7350431675266319</v>
+      </c>
+      <c r="F24" s="34">
+        <v>1.0218206363260001</v>
+      </c>
+      <c r="G24" s="41">
+        <v>0.97963167047471289</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="22">
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="37">
         <v>0.96029685440475998</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C25" s="35">
+        <v>0.18103601692776705</v>
+      </c>
+      <c r="D25" s="34">
         <v>1.0363617949438999</v>
       </c>
-      <c r="D22" s="22">
-        <v>0.97402206224586296</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E25" s="35">
+        <v>0.60758832520347905</v>
+      </c>
+      <c r="F25" s="37">
+        <v>0.97411602876772996</v>
+      </c>
+      <c r="G25" s="41">
+        <v>0.24545532363978095</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" s="3" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B4:D22">
+  <conditionalFormatting sqref="B5:B25 D10:D25 D5:D7 F5:F25">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1581,6 +2107,503 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7FCE6-3753-46E4-8848-1C18DB7D268E}">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1015625" customWidth="1"/>
+    <col min="3" max="3" width="10.89453125" customWidth="1"/>
+    <col min="4" max="4" width="10.68359375" customWidth="1"/>
+    <col min="5" max="5" width="11.7890625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.02036484329655</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.99333774810055397</v>
+      </c>
+      <c r="D4" s="23">
+        <v>1.02054974592186</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1.0405628356657299</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0.94463216711963505</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1.0357676067405399</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0.99958028552851996</v>
+      </c>
+      <c r="C6" s="26">
+        <v>1.02580067451686</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1.02055527179855</v>
+      </c>
+      <c r="C7" s="26">
+        <v>1.0670844469908201</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.98836650257329595</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1.0205922164792001</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0.97368244263514203</v>
+      </c>
+      <c r="D8" s="26">
+        <v>1.0362340889714701</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23">
+        <v>1.08481704138362</v>
+      </c>
+      <c r="C9" s="23">
+        <v>1.10335489244336</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0.96128504168947004</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1.00034126637305</v>
+      </c>
+      <c r="C10" s="24">
+        <v>0.934572303026595</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1.12373077656944</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="23">
+        <v>1.2167948194044</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1.51160591058991</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="23">
+        <v>1.0556137510054899</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.90846490285125803</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1.1677805687182301</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="23">
+        <v>1.0512300198017099</v>
+      </c>
+      <c r="C13" s="24">
+        <v>0.96294614960604397</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="24">
+        <v>0.98599467762113802</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.71212362887281999</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.96614533641476896</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1.0078649178189401</v>
+      </c>
+      <c r="C15" s="23">
+        <v>1.5198377918005399</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.99571003954454895</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1.0004187673951801</v>
+      </c>
+      <c r="C16" s="23">
+        <v>1.1806436226630099</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="24">
+        <v>0.95179153022478402</v>
+      </c>
+      <c r="C17" s="23">
+        <v>1.0066112447776601</v>
+      </c>
+      <c r="D17" s="23">
+        <v>1.0218506588838101</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="24">
+        <v>0.98305553915476096</v>
+      </c>
+      <c r="C18" s="23">
+        <v>1.0715698390335899</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="23">
+        <v>1.01389250888966</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.95537656189622</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1.1842427360379499</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="23">
+        <v>1.29314389937191</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.92688505224821105</v>
+      </c>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="24">
+        <v>0.98233983294017102</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.58351082356560702</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.76688124674380198</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="23">
+        <v>1.0564199605957201</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.98738227200360995</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="24">
+        <v>0.90189580511691203</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.64029491228955404</v>
+      </c>
+      <c r="D23" s="23">
+        <v>1.0224916389355101</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="24">
+        <v>0.96029685440475998</v>
+      </c>
+      <c r="C24" s="23">
+        <v>1.0363617949438999</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0.97402206224586296</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A25:F25"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="B4:D6 B9:D24 D7:D8 B7:B8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
@@ -1588,29 +2611,29 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.3125" customWidth="1"/>
+    <col min="4" max="4" width="13.5234375" customWidth="1"/>
+    <col min="5" max="5" width="16.5234375" customWidth="1"/>
+    <col min="6" max="6" width="15.41796875" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -1632,7 +2655,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1652,7 +2675,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1672,7 +2695,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1695,7 +2718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1718,7 +2741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1738,7 +2761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="9" t="s">
         <v>71</v>
       </c>
@@ -1778,7 +2801,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -1798,7 +2821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1818,7 +2841,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1858,7 +2881,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1881,7 +2904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1901,7 +2924,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1924,7 +2947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -1944,7 +2967,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1964,7 +2987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +3010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2010,7 +3033,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2033,7 +3056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -2056,7 +3079,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2076,7 +3099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -2096,15 +3119,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2116,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D3566-6703-489D-9AF8-8FD1C28C47E7}">
   <dimension ref="A1:U45"/>
   <sheetViews>
@@ -2124,12 +3147,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="75.26953125" customWidth="1"/>
+    <col min="1" max="1" width="75.20703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -2156,7 +3179,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>33</v>
@@ -2210,7 +3233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +3255,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -2288,7 +3311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -2344,7 +3367,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -2400,7 +3423,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -2456,7 +3479,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -2512,7 +3535,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
@@ -2570,7 +3593,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -2626,7 +3649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -2682,7 +3705,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -2738,7 +3761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -2794,7 +3817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -2850,7 +3873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -2906,7 +3929,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
@@ -2928,7 +3951,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
@@ -2984,7 +4007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -3040,7 +4063,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -3096,7 +4119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -3152,7 +4175,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -3175,7 +4198,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -3198,7 +4221,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -3251,7 +4274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
@@ -3274,7 +4297,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -3329,7 +4352,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="9" t="s">
         <v>76</v>
       </c>
@@ -3384,7 +4407,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
@@ -3439,7 +4462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="9" t="s">
         <v>46</v>
       </c>
@@ -3494,7 +4517,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
@@ -3549,7 +4572,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -3604,7 +4627,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
@@ -3659,7 +4682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -3714,7 +4737,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
@@ -3769,7 +4792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -3824,7 +4847,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -3879,7 +4902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -3934,7 +4957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="9" t="s">
         <v>87</v>
       </c>
@@ -3957,7 +4980,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -4012,7 +5035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
@@ -4067,7 +5090,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -4122,7 +5145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
@@ -4184,7 +5207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B99F86-20CF-4AE6-8BA2-9A0CB4F8E840}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -4192,9 +5215,9 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -4229,7 +5252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4264,7 +5287,7 @@
         <v>0.61603787908194396</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4299,7 +5322,7 @@
         <v>0.73843640680716705</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -4328,7 +5351,7 @@
         <v>0.49909436189447798</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -4363,7 +5386,7 @@
         <v>0.42063799698637</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4392,7 +5415,7 @@
         <v>0.99378406305634204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -4421,7 +5444,7 @@
         <v>2.4689291301641001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -4456,7 +5479,7 @@
         <v>0.52607025816026998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4491,7 +5514,7 @@
         <v>0.59308884870998202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -4520,7 +5543,7 @@
         <v>0.59055256316180404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -4555,7 +5578,7 @@
         <v>0.62311492189492701</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4584,7 +5607,7 @@
         <v>0.62094755775750798</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -4613,7 +5636,7 @@
         <v>0.62375655848317402</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -4648,7 +5671,7 @@
         <v>0.670178674151376</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4683,7 +5706,7 @@
         <v>1.6299174882641001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -4718,7 +5741,7 @@
         <v>0.29037862697744499</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -4753,7 +5776,7 @@
         <v>0.63831196943705804</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -4782,7 +5805,7 @@
         <v>0.54180052058706596</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -4811,7 +5834,7 @@
         <v>0.93248027954638302</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>108</v>
       </c>

--- a/fig/summary_table.xlsx
+++ b/fig/summary_table.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oxford\Chapter_four\dgvmlin\fig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Oxford\Chapter_four\dgvmlin\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258484B-22BF-416A-9968-7A44FBEEDA4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC0D205-4213-44D9-8F99-1BD9A4785132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8390" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Trendy V11IQR" sheetId="7" r:id="rId1"/>
-    <sheet name="Trendy V11" sheetId="6" r:id="rId2"/>
-    <sheet name="Trendy V9" sheetId="1" r:id="rId3"/>
-    <sheet name="compare process" sheetId="3" r:id="rId4"/>
-    <sheet name="quantile_result" sheetId="4" r:id="rId5"/>
+    <sheet name="Trendy V9 (2)" sheetId="6" r:id="rId1"/>
+    <sheet name="Trendy V9" sheetId="1" r:id="rId2"/>
+    <sheet name="compare process" sheetId="3" r:id="rId3"/>
+    <sheet name="quantile_result" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="126">
   <si>
     <t>LNPP:GPP</t>
   </si>
@@ -477,6 +476,23 @@
     </r>
     <r>
       <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N-coupled</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -557,95 +573,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">a: Note that LcVeg_ag:cVeg was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
+b: Carbon-nitrogen interactions, including N deposition, for more information, see supplementary of (citation XXX)
+</t>
+  </si>
+  <si>
+    <t>Experiments Pattern</t>
+  </si>
+  <si>
     <t>&gt;1</t>
   </si>
   <si>
+    <t>Table one: summary of models linearity. The median of the linearity index 'L' was shown (see Figure 1,2,3 for the histogram of 'L' ). Using LNPP:GPP as an example, values larger than 1 imply a relative increase in NPP is larger than GPP.  Orange illustrates &gt;1, while green illustrates &lt;1. When LNPP:GPP&lt;1, the carbon pool has limited capacity so the increase of the carbon pool (carbon sink) is smaller than the increase of its input flux.</t>
+  </si>
+  <si>
     <t>Models Overall</t>
-  </si>
-  <si>
-    <r>
-      <t>CN-coupled</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <t>C only models</t>
-  </si>
-  <si>
-    <t>CN coupled models</t>
-  </si>
-  <si>
-    <t>Veg Demo</t>
-  </si>
-  <si>
-    <t>not Veg Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 1. Summary of models linearity. The median of the linearity index 'L' was shown. Using LNPP:GPP as an example, values smaller than 1 imply that a relative increase in NPP is smaller than GPP. Red illustrates &gt;1, while green illustrates &lt;1. </t>
-  </si>
-  <si>
-    <r>
-      <t>Empirical Pattern</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">a: Note that linearity cVeg versus cVeg above ground was not presented, because it contains the same information as LcRoot:cVeg; cRoot may or may not contain coarse roots depending on models.
-b: CN coupled models incorporate Carbon-nitrogen interactions, including N deposition. The rest are C only models
-c: Veg Demo models consider ecosystem demography, and/or vegetation competition. The rest are 'not Veg Demo' models.
-d: Empirical Pattern refers to empirical expectations of linearity index L as summarized in the Introduction
-</t>
-  </si>
-  <si>
-    <t>LPJwsl</t>
-  </si>
-  <si>
-    <r>
-      <t>Veg  demo</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-  </si>
-  <si>
-    <t>Table 1. Summary of models linearity. The median of the linearity index 'L' was shown as big and coloured print. Using LNPP:GPP as an example, values smaller than 1 imply that a relative increase in NPP is smaller than GPP. Red illustrates &gt;1, while green illustrates &lt;1. The small print represents IQR (i.e. the extend of spatial variation of the index L).</t>
-  </si>
-  <si>
-    <t>Median</t>
-  </si>
-  <si>
-    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -653,9 +595,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,15 +681,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -784,20 +719,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9999"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -823,53 +746,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -890,100 +773,23 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -993,12 +799,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FFFF9999"/>
-      <color rgb="FF339966"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1286,1354 +1086,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7103E-9698-4ADB-8F53-91BCC1D4B92C}">
-  <dimension ref="A1:AE50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7FCE6-3753-46E4-8848-1C18DB7D268E}">
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A1:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.20703125" customWidth="1"/>
-    <col min="3" max="3" width="5.41796875" customWidth="1"/>
-    <col min="4" max="4" width="7.20703125" customWidth="1"/>
-    <col min="5" max="5" width="5.3671875" customWidth="1"/>
-    <col min="6" max="6" width="6.26171875" customWidth="1"/>
-    <col min="7" max="7" width="6.47265625" customWidth="1"/>
-    <col min="8" max="8" width="11.7890625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" ht="61.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:31" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
-      <c r="B2" s="45" t="s">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="99.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="17"/>
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47" t="s">
+      <c r="C2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1.0225345604366101</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.98717775941625496</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1.0043112417434901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1.08481704138362</v>
+      </c>
+      <c r="C5" s="24">
+        <v>1.10335489244336</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.96128504168947004</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1.00013112359679</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.934572303026595</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1.12373077656944</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1.21616266309143</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1.47928943969862</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1.0593265047434799</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.89272806048166997</v>
+      </c>
+      <c r="D8" s="24">
+        <v>1.1542885177826201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24">
+        <v>1.05500273425127</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.94180280625131896</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="23">
+        <v>0.98598435486487901</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.71114327910187702</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.96662854244519003</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24">
+        <v>1.0078649178189401</v>
+      </c>
+      <c r="C11" s="24">
+        <v>1.5198377918005399</v>
+      </c>
+      <c r="D11" s="23">
+        <v>0.99571003954454895</v>
+      </c>
+      <c r="E11" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1"/>
-      <c r="B3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:31" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="27"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="24">
+        <v>1.0004187673951801</v>
+      </c>
+      <c r="C12" s="24">
+        <v>1.1806436226630099</v>
+      </c>
+      <c r="D12" s="24">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="23">
+        <v>0.95295835098146198</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.0066112447776601</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1.0218504148142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="23">
+        <v>0.98305553915476096</v>
+      </c>
+      <c r="C14" s="24">
+        <v>1.0715698390335899</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1.01389250888966</v>
+      </c>
+      <c r="C15" s="23">
+        <v>0.95537656189622</v>
+      </c>
+      <c r="D15" s="24">
+        <v>1.1842427360379499</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1.2954166214692799</v>
+      </c>
+      <c r="C16" s="23">
+        <v>0.92688505224821105</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="23">
+        <v>0.98571216534577499</v>
+      </c>
+      <c r="C17" s="23">
+        <v>0.57093636897589195</v>
+      </c>
+      <c r="D17" s="23">
+        <v>0.76904817406915704</v>
+      </c>
+      <c r="E17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="24">
+        <v>1.0564121153100701</v>
+      </c>
+      <c r="C18" s="23">
+        <v>0.98799137914526103</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23">
+        <v>0.90189580511691203</v>
+      </c>
+      <c r="C19" s="23">
+        <v>0.64029491228955404</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1.0224916389355101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="23">
+        <v>0.96029685440475998</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1.0363617949438999</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.97402206224586296</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="3" customFormat="1" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="34">
-        <v>1.02036484329655</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0.215537718853272</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0.99333774810055397</v>
-      </c>
-      <c r="E5" s="35">
-        <v>0.73592159659556899</v>
-      </c>
-      <c r="F5" s="34">
-        <v>1.0203173481130601</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0.35343461698274892</v>
-      </c>
-      <c r="H5" s="25"/>
-      <c r="I5" s="28"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" s="36">
-        <v>1.0405628356657299</v>
-      </c>
-      <c r="C6" s="35">
-        <v>0.16778838439550392</v>
-      </c>
-      <c r="D6" s="36">
-        <v>0.94463216711963505</v>
-      </c>
-      <c r="E6" s="35">
-        <v>0.69490435664509598</v>
-      </c>
-      <c r="F6" s="36">
-        <v>1.0357676067405399</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0.48934681335177599</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B7" s="36">
-        <v>0.99958028552851996</v>
-      </c>
-      <c r="C7" s="35">
-        <v>0.25815995086821308</v>
-      </c>
-      <c r="D7" s="36">
-        <v>1.02580067451686</v>
-      </c>
-      <c r="E7" s="35">
-        <v>0.74222166479097607</v>
-      </c>
-      <c r="F7" s="36">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0.23350951029954692</v>
-      </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="28"/>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="36">
-        <v>1.02055527179855</v>
-      </c>
-      <c r="C8" s="35">
-        <v>0.27914773686446792</v>
-      </c>
-      <c r="D8" s="36">
-        <v>1.0670844469908201</v>
-      </c>
-      <c r="E8" s="35">
-        <v>1.0909100081102099</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0.98836650257329595</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0.17753088199772604</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="28"/>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="36">
-        <v>1.0205922164792001</v>
-      </c>
-      <c r="C9" s="35">
-        <v>0.18474053866396989</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0.97368244263514203</v>
-      </c>
-      <c r="E9" s="35">
-        <v>0.56740179987341</v>
-      </c>
-      <c r="F9" s="36">
-        <v>1.0362340889714701</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0.40255973397416189</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="28"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="34">
-        <v>1.08481704138362</v>
-      </c>
-      <c r="C10" s="35">
-        <v>0.27060534627118293</v>
-      </c>
-      <c r="D10" s="34">
-        <v>1.10335489244336</v>
-      </c>
-      <c r="E10" s="35">
-        <v>0.82844676602854206</v>
-      </c>
-      <c r="F10" s="37">
-        <v>0.96275366818694597</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0.38243991982688508</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="28"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="34">
-        <v>1.00034126637305</v>
-      </c>
-      <c r="C11" s="35">
-        <v>8.6068968413512859E-2</v>
-      </c>
-      <c r="D11" s="37">
-        <v>0.934572303026595</v>
-      </c>
-      <c r="E11" s="35">
-        <v>0.45556380342775604</v>
-      </c>
-      <c r="F11" s="34">
-        <v>1.13291106462944</v>
-      </c>
-      <c r="G11" s="41">
-        <v>0.77987903399306502</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="28"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="34">
-        <v>1.2167948194044</v>
-      </c>
-      <c r="C12" s="35">
-        <v>0.3510150541116599</v>
-      </c>
-      <c r="D12" s="34">
-        <v>1.51160591058991</v>
-      </c>
-      <c r="E12" s="35">
-        <v>2.2476998519533891</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I12" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="34">
-        <v>1.0556137510054899</v>
-      </c>
-      <c r="C13" s="35">
-        <v>0.11997945114897002</v>
-      </c>
-      <c r="D13" s="37">
-        <v>0.90846490285125803</v>
-      </c>
-      <c r="E13" s="35">
-        <v>0.49031151830080788</v>
-      </c>
-      <c r="F13" s="34">
-        <v>1.1840140605082701</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0.423836265888762</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" s="28"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="34">
-        <v>1.0512300198017099</v>
-      </c>
-      <c r="C14" s="35">
-        <v>0.11395763990071006</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.96294614960604397</v>
-      </c>
-      <c r="E14" s="35">
-        <v>0.57499413108635899</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="28"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="37">
-        <v>0.98599467762113802</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0.10455336480207589</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0.71212362887281999</v>
-      </c>
-      <c r="E15" s="35">
-        <v>0.47015076427556102</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.96601707046895502</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0.35997278359246909</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="28"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="34">
-        <v>1.0078649178189401</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0.21955805230654513</v>
-      </c>
-      <c r="D16" s="34">
-        <v>1.5198377918005399</v>
-      </c>
-      <c r="E16" s="35">
-        <v>0.58676654115440985</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.99564364813023298</v>
-      </c>
-      <c r="G16" s="41">
-        <v>8.3908624363447926E-2</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I16" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="34">
-        <v>1.0004187673951801</v>
-      </c>
-      <c r="C17" s="35">
-        <v>0.40089710438064008</v>
-      </c>
-      <c r="D17" s="34">
-        <v>1.1806436226630099</v>
-      </c>
-      <c r="E17" s="35">
-        <v>0.69565659925692003</v>
-      </c>
-      <c r="F17" s="34">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41">
-        <v>2.1533541792660982E-2</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="37">
-        <v>0.95179153022478402</v>
-      </c>
-      <c r="C18" s="35">
-        <v>0.38375137083786204</v>
-      </c>
-      <c r="D18" s="34">
-        <v>1.0066112447776601</v>
-      </c>
-      <c r="E18" s="35">
-        <v>0.82498163247975709</v>
-      </c>
-      <c r="F18" s="34">
-        <v>1.0225717634092499</v>
-      </c>
-      <c r="G18" s="41">
-        <v>0.23051471440833393</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I18" s="28"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="37">
-        <v>0.98305553915476096</v>
-      </c>
-      <c r="C19" s="35">
-        <v>8.6417253057192056E-2</v>
-      </c>
-      <c r="D19" s="34">
-        <v>1.0715698390335899</v>
-      </c>
-      <c r="E19" s="35">
-        <v>0.27597248440608202</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="34">
-        <v>1.01389250888966</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0.11011604676537812</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.95537656189622</v>
-      </c>
-      <c r="E20" s="35">
-        <v>0.30505181669990111</v>
-      </c>
-      <c r="F20" s="34">
-        <v>1.1854900774247901</v>
-      </c>
-      <c r="G20" s="41">
-        <v>0.25568419527634001</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="28"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="34">
-        <v>1.29314389937191</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0.40287621371065008</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0.92688505224821105</v>
-      </c>
-      <c r="E21" s="35">
-        <v>1.0617699296656209</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="41">
-        <v>0</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="37">
-        <v>0.98233983294017102</v>
-      </c>
-      <c r="C22" s="35">
-        <v>0.35713960753490293</v>
-      </c>
-      <c r="D22" s="37">
-        <v>0.58351082356560702</v>
-      </c>
-      <c r="E22" s="35">
-        <v>0.58838107399337003</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.76401034529867395</v>
-      </c>
-      <c r="G22" s="41">
-        <v>0.44881047986116596</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="34">
-        <v>1.0564199605957201</v>
-      </c>
-      <c r="C23" s="35">
-        <v>0.2991445046595409</v>
-      </c>
-      <c r="D23" s="37">
-        <v>0.98738227200360995</v>
-      </c>
-      <c r="E23" s="35">
-        <v>1.1818525191907781</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I23" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="37">
-        <v>0.90189580511691203</v>
-      </c>
-      <c r="C24" s="35">
-        <v>0.34252380219377687</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.64029491228955404</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.7350431675266319</v>
-      </c>
-      <c r="F24" s="34">
-        <v>1.0218206363260001</v>
-      </c>
-      <c r="G24" s="41">
-        <v>0.97963167047471289</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="37">
-        <v>0.96029685440475998</v>
-      </c>
-      <c r="C25" s="35">
-        <v>0.18103601692776705</v>
-      </c>
-      <c r="D25" s="34">
-        <v>1.0363617949438999</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0.60758832520347905</v>
-      </c>
-      <c r="F25" s="37">
-        <v>0.97411602876772996</v>
-      </c>
-      <c r="G25" s="41">
-        <v>0.24545532363978095</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A21:E21"/>
   </mergeCells>
-  <conditionalFormatting sqref="B5:B25 D10:D25 D5:D7 F5:F25">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE7FCE6-3753-46E4-8848-1C18DB7D268E}">
-  <dimension ref="A1:AB25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1015625" customWidth="1"/>
-    <col min="3" max="3" width="10.89453125" customWidth="1"/>
-    <col min="4" max="4" width="10.68359375" customWidth="1"/>
-    <col min="5" max="5" width="11.7890625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:28" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="16.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="23">
-        <v>1.02036484329655</v>
-      </c>
-      <c r="C4" s="24">
-        <v>0.99333774810055397</v>
-      </c>
-      <c r="D4" s="23">
-        <v>1.02054974592186</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="26">
-        <v>1.0405628356657299</v>
-      </c>
-      <c r="C5" s="26">
-        <v>0.94463216711963505</v>
-      </c>
-      <c r="D5" s="26">
-        <v>1.0357676067405399</v>
-      </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="28"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B6" s="26">
-        <v>0.99958028552851996</v>
-      </c>
-      <c r="C6" s="26">
-        <v>1.02580067451686</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="28"/>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="26">
-        <v>1.02055527179855</v>
-      </c>
-      <c r="C7" s="26">
-        <v>1.0670844469908201</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.98836650257329595</v>
-      </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="28"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="26">
-        <v>1.0205922164792001</v>
-      </c>
-      <c r="C8" s="26">
-        <v>0.97368244263514203</v>
-      </c>
-      <c r="D8" s="26">
-        <v>1.0362340889714701</v>
-      </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="28"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="23">
-        <v>1.08481704138362</v>
-      </c>
-      <c r="C9" s="23">
-        <v>1.10335489244336</v>
-      </c>
-      <c r="D9" s="24">
-        <v>0.96128504168947004</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="28"/>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="23">
-        <v>1.00034126637305</v>
-      </c>
-      <c r="C10" s="24">
-        <v>0.934572303026595</v>
-      </c>
-      <c r="D10" s="23">
-        <v>1.12373077656944</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="28"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="23">
-        <v>1.2167948194044</v>
-      </c>
-      <c r="C11" s="23">
-        <v>1.51160591058991</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="23">
-        <v>1.0556137510054899</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.90846490285125803</v>
-      </c>
-      <c r="D12" s="23">
-        <v>1.1677805687182301</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="23">
-        <v>1.0512300198017099</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.96294614960604397</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14" s="24">
-        <v>0.98599467762113802</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.71212362887281999</v>
-      </c>
-      <c r="D14" s="24">
-        <v>0.96614533641476896</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="23">
-        <v>1.0078649178189401</v>
-      </c>
-      <c r="C15" s="23">
-        <v>1.5198377918005399</v>
-      </c>
-      <c r="D15" s="24">
-        <v>0.99571003954454895</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="23">
-        <v>1.0004187673951801</v>
-      </c>
-      <c r="C16" s="23">
-        <v>1.1806436226630099</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="24">
-        <v>0.95179153022478402</v>
-      </c>
-      <c r="C17" s="23">
-        <v>1.0066112447776601</v>
-      </c>
-      <c r="D17" s="23">
-        <v>1.0218506588838101</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="28"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="24">
-        <v>0.98305553915476096</v>
-      </c>
-      <c r="C18" s="23">
-        <v>1.0715698390335899</v>
-      </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="23">
-        <v>1.01389250888966</v>
-      </c>
-      <c r="C19" s="24">
-        <v>0.95537656189622</v>
-      </c>
-      <c r="D19" s="23">
-        <v>1.1842427360379499</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="28"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="23">
-        <v>1.29314389937191</v>
-      </c>
-      <c r="C20" s="24">
-        <v>0.92688505224821105</v>
-      </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F20" s="28"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="24">
-        <v>0.98233983294017102</v>
-      </c>
-      <c r="C21" s="24">
-        <v>0.58351082356560702</v>
-      </c>
-      <c r="D21" s="24">
-        <v>0.76688124674380198</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="23">
-        <v>1.0564199605957201</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0.98738227200360995</v>
-      </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="24">
-        <v>0.90189580511691203</v>
-      </c>
-      <c r="C23" s="24">
-        <v>0.64029491228955404</v>
-      </c>
-      <c r="D23" s="23">
-        <v>1.0224916389355101</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="24">
-        <v>0.96029685440475998</v>
-      </c>
-      <c r="C24" s="23">
-        <v>1.0363617949438999</v>
-      </c>
-      <c r="D24" s="24">
-        <v>0.97402206224586296</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="28"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A25:F25"/>
-  </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="B4:D6 B9:D24 D7:D8 B7:B8">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E4" sqref="E4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="10.3125" customWidth="1"/>
-    <col min="4" max="4" width="13.5234375" customWidth="1"/>
-    <col min="5" max="5" width="16.5234375" customWidth="1"/>
-    <col min="6" max="6" width="15.41796875" customWidth="1"/>
-    <col min="7" max="7" width="11.7890625" customWidth="1"/>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="5" max="5" width="16.54296875" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:30" s="3" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2655,7 +1526,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:30" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -2675,7 +1546,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:30" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2695,7 +1566,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2718,7 +1589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -2741,7 +1612,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2761,7 +1632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>71</v>
       </c>
@@ -2801,7 +1672,7 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -2821,7 +1692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2841,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +1752,7 @@
       <c r="AC11" s="9"/>
       <c r="AD11" s="9"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -2904,7 +1775,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2924,7 +1795,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2947,7 +1818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -2967,7 +1838,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -2987,7 +1858,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -3010,7 +1881,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3033,7 +1904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -3056,7 +1927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -3079,7 +1950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -3099,7 +1970,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -3119,15 +1990,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="50" t="s">
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3139,7 +2010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F96D3566-6703-489D-9AF8-8FD1C28C47E7}">
   <dimension ref="A1:U45"/>
   <sheetViews>
@@ -3147,12 +2018,12 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="75.20703125" customWidth="1"/>
+    <col min="1" max="1" width="75.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>68</v>
       </c>
@@ -3179,7 +2050,7 @@
       <c r="T1" s="7"/>
       <c r="U1" s="7"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>33</v>
@@ -3233,7 +2104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>36</v>
       </c>
@@ -3255,7 +2126,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>37</v>
       </c>
@@ -3311,7 +2182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -3367,7 +2238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -3423,7 +2294,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>46</v>
       </c>
@@ -3479,7 +2350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>47</v>
       </c>
@@ -3535,7 +2406,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
@@ -3593,7 +2464,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>50</v>
       </c>
@@ -3649,7 +2520,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>52</v>
       </c>
@@ -3705,7 +2576,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +2632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>54</v>
       </c>
@@ -3817,7 +2688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>55</v>
       </c>
@@ -3873,7 +2744,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>56</v>
       </c>
@@ -3929,7 +2800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
@@ -3951,7 +2822,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>61</v>
       </c>
@@ -4007,7 +2878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>62</v>
       </c>
@@ -4063,7 +2934,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>63</v>
       </c>
@@ -4119,7 +2990,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>64</v>
       </c>
@@ -4175,7 +3046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>93</v>
       </c>
@@ -4198,7 +3069,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -4221,7 +3092,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -4274,7 +3145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>36</v>
       </c>
@@ -4297,7 +3168,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>37</v>
       </c>
@@ -4352,7 +3223,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>76</v>
       </c>
@@ -4407,7 +3278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>77</v>
       </c>
@@ -4462,7 +3333,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>46</v>
       </c>
@@ -4517,7 +3388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>81</v>
       </c>
@@ -4572,7 +3443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>82</v>
       </c>
@@ -4627,7 +3498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>50</v>
       </c>
@@ -4682,7 +3553,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>52</v>
       </c>
@@ -4737,7 +3608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>53</v>
       </c>
@@ -4792,7 +3663,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38" s="9" t="s">
         <v>54</v>
       </c>
@@ -4847,7 +3718,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>85</v>
       </c>
@@ -4902,7 +3773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>86</v>
       </c>
@@ -4957,7 +3828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>87</v>
       </c>
@@ -4980,7 +3851,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>88</v>
       </c>
@@ -5035,7 +3906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
@@ -5090,7 +3961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>89</v>
       </c>
@@ -5145,7 +4016,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>90</v>
       </c>
@@ -5207,7 +4078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B99F86-20CF-4AE6-8BA2-9A0CB4F8E840}">
   <dimension ref="A1:K20"/>
   <sheetViews>
@@ -5215,9 +4086,9 @@
       <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>96</v>
       </c>
@@ -5252,7 +4123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5287,7 +4158,7 @@
         <v>0.61603787908194396</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -5322,7 +4193,7 @@
         <v>0.73843640680716705</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5351,7 +4222,7 @@
         <v>0.49909436189447798</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -5386,7 +4257,7 @@
         <v>0.42063799698637</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5415,7 +4286,7 @@
         <v>0.99378406305634204</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5444,7 +4315,7 @@
         <v>2.4689291301641001</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5479,7 +4350,7 @@
         <v>0.52607025816026998</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -5514,7 +4385,7 @@
         <v>0.59308884870998202</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -5543,7 +4414,7 @@
         <v>0.59055256316180404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -5578,7 +4449,7 @@
         <v>0.62311492189492701</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5607,7 +4478,7 @@
         <v>0.62094755775750798</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -5636,7 +4507,7 @@
         <v>0.62375655848317402</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -5671,7 +4542,7 @@
         <v>0.670178674151376</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5706,7 +4577,7 @@
         <v>1.6299174882641001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -5741,7 +4612,7 @@
         <v>0.29037862697744499</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -5776,7 +4647,7 @@
         <v>0.63831196943705804</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -5805,7 +4676,7 @@
         <v>0.54180052058706596</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5834,7 +4705,7 @@
         <v>0.93248027954638302</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>108</v>
       </c>
